--- a/biology/Biochimie/25H-NBOMe/25H-NBOMe.xlsx
+++ b/biology/Biochimie/25H-NBOMe/25H-NBOMe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 25H-NBOMe (ou 2C-H-NBOMe) est une phényléthylamine dérivée du 2C-H.
-La famille des 25x-NBOMe a été découverte en 2003 à l'université libre de Berlin par le chimiste Ralf Heim[5]. Cependant, on ne trouve pas de trace du 25H-NBOMe dans la littérature avant 2006, lorsqu'un groupe de recherche de l'université de Purdue étudie l'action in vitro de plusieurs molécules de cette famille[6].
+La famille des 25x-NBOMe a été découverte en 2003 à l'université libre de Berlin par le chimiste Ralf Heim. Cependant, on ne trouve pas de trace du 25H-NBOMe dans la littérature avant 2006, lorsqu'un groupe de recherche de l'université de Purdue étudie l'action in vitro de plusieurs molécules de cette famille.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25H-NBOMe est un dérivé de la phényléthylamine 2C-H, découverte par Alexander Shulgin et décrite dans son ouvrage PiHKAL[7].
-Il est généralement utilisé sous forme chlorhydrate[1],[8]. Il est parfois retrouvé à l'état de traces en compagnie d'autres 25x-NBOMe, ce qui indiquerait sa possible utilisation comme précurseur[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25H-NBOMe est un dérivé de la phényléthylamine 2C-H, découverte par Alexander Shulgin et décrite dans son ouvrage PiHKAL.
+Il est généralement utilisé sous forme chlorhydrate,. Il est parfois retrouvé à l'état de traces en compagnie d'autres 25x-NBOMe, ce qui indiquerait sa possible utilisation comme précurseur.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très peu d'études pharmacologiques ont été menées sur le 25H-NBOMe.
-Il aurait une action sur les récepteurs sérotoninergiques 2A (en), 2B (en) et 2C (en), avec cependant une affinité bien moindre que la plupart des autres 25x-NBOMe[10]. La dose active de cette molécule par rapport aux autres composés de la même famille est ainsi significativement plus élevée[4].
+Il aurait une action sur les récepteurs sérotoninergiques 2A (en), 2B (en) et 2C (en), avec cependant une affinité bien moindre que la plupart des autres 25x-NBOMe. La dose active de cette molécule par rapport aux autres composés de la même famille est ainsi significativement plus élevée.
 </t>
         </is>
       </c>
